--- a/r5-ELGA-MOPED-125-physische-Anwesenheit---Extension-entfernen-und-ValueSet-anlegen/ValueSet-moped-VerdachtArbeitsSchuelerunfall-valueset.xlsx
+++ b/r5-ELGA-MOPED-125-physische-Anwesenheit---Extension-entfernen-und-ValueSet-anlegen/ValueSet-moped-VerdachtArbeitsSchuelerunfall-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-03T14:00:19+00:00</t>
+    <t>2024-10-09T10:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
